--- a/Question 2/reports/finalreportwithvisualization.xlsx
+++ b/Question 2/reports/finalreportwithvisualization.xlsx
@@ -110,8 +110,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFF2CC"/>
-        <bgColor rgb="FFFFF2CC"/>
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -391,7 +391,36 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="7886700" cy="4724400"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
